--- a/logs/sample-20022023.xlsx
+++ b/logs/sample-20022023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Design\Desktop\AE\RTES\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04556090-754E-4798-8CF6-F6BB76A98D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8563F-BAE5-4A40-A1C8-004512EDC253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K268"/>
+  <dimension ref="A1:K269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="K266" sqref="K266"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6490,6 +6490,12 @@
         <v>90</v>
       </c>
     </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <f>SUM(A2:A268)</f>
+        <v>24905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logs/sample-20022023.xlsx
+++ b/logs/sample-20022023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Design\Desktop\AE\RTES\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8563F-BAE5-4A40-A1C8-004512EDC253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852C1F1-2416-41A8-9AFB-1C418A09225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K269"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2941,7 +2941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>66</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>67</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>68</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>69</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>70</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>71</v>
       </c>
@@ -3078,21 +3078,13 @@
       <c r="G118">
         <v>18</v>
       </c>
-      <c r="I118">
-        <f>SUM(C52:C118)</f>
-        <v>305.33999999999986</v>
-      </c>
-      <c r="J118">
-        <f>I118/60</f>
-        <v>5.0889999999999977</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>72</v>
       </c>
@@ -3115,7 +3107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>73</v>
       </c>
@@ -3138,7 +3130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>74</v>
       </c>
@@ -3161,7 +3153,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>75</v>
       </c>
@@ -3184,7 +3176,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>76</v>
       </c>
@@ -3207,7 +3199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>77</v>
       </c>
@@ -3230,7 +3222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>78</v>
       </c>
@@ -3253,7 +3245,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>79</v>
       </c>
@@ -3276,7 +3268,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>80</v>
       </c>
@@ -3299,7 +3291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>81</v>
       </c>
@@ -3322,7 +3314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>82</v>
       </c>
@@ -3345,7 +3337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>83</v>
       </c>
@@ -3368,7 +3360,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>84</v>
       </c>
@@ -3390,21 +3382,13 @@
       <c r="G132">
         <v>72</v>
       </c>
-      <c r="I132">
-        <f>SUM(C120:C132)</f>
-        <v>60.37</v>
-      </c>
-      <c r="J132">
-        <f>I132/60</f>
-        <v>1.0061666666666667</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>86</v>
       </c>
@@ -3427,7 +3411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>87</v>
       </c>
@@ -3450,7 +3434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>88</v>
       </c>
@@ -3473,7 +3457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>89</v>
       </c>
@@ -3496,7 +3480,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>90</v>
       </c>
@@ -3519,7 +3503,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>91</v>
       </c>
@@ -3542,7 +3526,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>92</v>
       </c>
@@ -3565,7 +3549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>93</v>
       </c>
@@ -3588,7 +3572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>94</v>
       </c>
@@ -3611,7 +3595,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>95</v>
       </c>
@@ -3634,7 +3618,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>96</v>
       </c>
@@ -4761,7 +4745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>145</v>
       </c>
@@ -4784,7 +4768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>146</v>
       </c>
@@ -4807,7 +4791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>147</v>
       </c>
@@ -4830,7 +4814,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>148</v>
       </c>
@@ -4853,7 +4837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>149</v>
       </c>
@@ -4876,7 +4860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>150</v>
       </c>
@@ -4899,7 +4883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>151</v>
       </c>
@@ -4921,21 +4905,13 @@
       <c r="G199">
         <v>18</v>
       </c>
-      <c r="I199">
-        <f>SUM(C134:C199)</f>
-        <v>303.71999999999991</v>
-      </c>
-      <c r="J199">
-        <f>I199/60</f>
-        <v>5.0619999999999985</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>152</v>
       </c>
@@ -4958,7 +4934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>153</v>
       </c>
@@ -4981,7 +4957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>154</v>
       </c>
@@ -5004,7 +4980,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>155</v>
       </c>
@@ -5027,7 +5003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>156</v>
       </c>
@@ -5050,7 +5026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>157</v>
       </c>
@@ -5073,7 +5049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>158</v>
       </c>
@@ -5096,7 +5072,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>159</v>
       </c>
@@ -6220,7 +6196,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>210</v>
       </c>
@@ -6243,7 +6219,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>211</v>
       </c>
@@ -6266,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>212</v>
       </c>
@@ -6289,7 +6265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>213</v>
       </c>
@@ -6312,7 +6288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>214</v>
       </c>
@@ -6335,7 +6311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>215</v>
       </c>
@@ -6358,7 +6334,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>216</v>
       </c>
@@ -6381,7 +6357,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>217</v>
       </c>
@@ -6404,7 +6380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>218</v>
       </c>
@@ -6426,25 +6402,13 @@
       <c r="G265">
         <v>54</v>
       </c>
-      <c r="I265">
-        <f>SUM(C201:C265)</f>
-        <v>294.02</v>
-      </c>
-      <c r="J265">
-        <f>I265/60</f>
-        <v>4.9003333333333332</v>
-      </c>
-      <c r="K265">
-        <f>300-I265</f>
-        <v>5.9800000000000182</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>219</v>
       </c>
@@ -6467,7 +6431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>220</v>
       </c>
@@ -6488,12 +6452,6 @@
       </c>
       <c r="G268">
         <v>90</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A269">
-        <f>SUM(A2:A268)</f>
-        <v>24905</v>
       </c>
     </row>
   </sheetData>

--- a/logs/sample-20022023.xlsx
+++ b/logs/sample-20022023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Design\Desktop\AE\RTES\logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852C1F1-2416-41A8-9AFB-1C418A09225E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131D4AEF-08D2-4E81-B8F8-507556308286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Total Fuel Pulses</t>
   </si>
@@ -56,6 +56,9 @@
     <t>Fuel Percentage (%)</t>
   </si>
   <si>
+    <t>Total Cycles</t>
+  </si>
+  <si>
     <t>4:20 PM</t>
   </si>
   <si>
@@ -73,6 +76,24 @@
   <si>
     <t>4:38 PM</t>
   </si>
+  <si>
+    <t>Average Fuel Consumption Rate</t>
+  </si>
+  <si>
+    <t>Total Fuel Consumption</t>
+  </si>
+  <si>
+    <t>Total Water Consumption</t>
+  </si>
+  <si>
+    <t>Fuel Percentage</t>
+  </si>
+  <si>
+    <t>Water Percentage</t>
+  </si>
+  <si>
+    <t>Time Spent</t>
+  </si>
 </sst>
 </file>
 
@@ -87,15 +108,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,12 +136,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +491,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -464,8 +520,15 @@
       <c r="G2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <f>MAX(A:A)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -487,8 +550,15 @@
       <c r="G3">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(D:D)</f>
+        <v>31.940810810810792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -510,8 +580,15 @@
       <c r="G4">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <f>K2*1.45</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -533,8 +610,15 @@
       <c r="G5">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <f>K4/(K4+K7)*100</f>
+        <v>90.156289743662214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -556,8 +640,15 @@
       <c r="G6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <f>MAX(B:B)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -579,13 +670,30 @@
       <c r="G7">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f>K6*0.81</f>
+        <v>34.830000000000005</v>
+      </c>
+      <c r="N7">
+        <v>564.68476310000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <f>K7/(K4+K7)*100</f>
+        <v>9.8437102563377916</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -607,8 +715,15 @@
       <c r="G9">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="str">
+        <f>FLOOR(SUM(C:C)/60/60,1)&amp;" h "&amp;ROUND(SUM(C:C)/60/60-FLOOR(SUM(C:C)/60/60,1),1)*60&amp;" m"</f>
+        <v>0 h 18 m</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
@@ -631,7 +746,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
@@ -654,7 +769,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
@@ -677,7 +792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
@@ -700,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
@@ -723,7 +838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
@@ -746,7 +861,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1369,7 +1484,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -1535,7 +1650,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -3081,7 +3196,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
@@ -3385,7 +3500,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -4908,7 +5023,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
@@ -6405,7 +6520,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
